--- a/excel/dept_comp1_eccentricity.xlsx
+++ b/excel/dept_comp1_eccentricity.xlsx
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zoran Marjanovic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -446,7 +446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -461,7 +461,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nenad Anicic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -491,7 +491,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sinisa Neskovic</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Sinisa Neskovic</t>
         </is>
       </c>
       <c r="B11" t="n">

--- a/excel/dept_comp1_eccentricity.xlsx
+++ b/excel/dept_comp1_eccentricity.xlsx
@@ -386,7 +386,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ana Pajic</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -401,7 +401,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -416,7 +416,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vidan Markovic</t>
+          <t>Ana Pajic</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -446,7 +446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nenad Anicic</t>
+          <t>Sinisa Neskovic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -461,7 +461,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Milica Vuckovic</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -476,7 +476,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Milica Vuckovic</t>
+          <t>Ognjen Pantelic</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -491,7 +491,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zoran Marjanovic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ognjen Pantelic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -521,7 +521,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sinisa Neskovic</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B11" t="n">
